--- a/biology/Médecine/Syndrome_MOMO/Syndrome_MOMO.xlsx
+++ b/biology/Médecine/Syndrome_MOMO/Syndrome_MOMO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Syndrome MOMO est une maladie génétique extrêmement rare qui appartient aux syndromes de surcroissance et qui n'a été diagnostiqué que dans six cas à travers le monde. Son nom est un acronyme de la première lettre des quatre symptômes du syndrome : Macrosomie fœtale (surpoids à la naissance), Obésité, Macrocéphalie (hypertrophie de la tête) et anomalies Oculaires.  Le syndrome MOMO a été diagnostiqué pour la première en 1993[1] par le professeur Célia Priszkulnik Koiffmann, un chercheur brésilien dans les études génétiques et les troubles cliniques du développement neurologique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Syndrome MOMO est une maladie génétique extrêmement rare qui appartient aux syndromes de surcroissance et qui n'a été diagnostiqué que dans six cas à travers le monde. Son nom est un acronyme de la première lettre des quatre symptômes du syndrome : Macrosomie fœtale (surpoids à la naissance), Obésité, Macrocéphalie (hypertrophie de la tête) et anomalies Oculaires.  Le syndrome MOMO a été diagnostiqué pour la première en 1993 par le professeur Célia Priszkulnik Koiffmann, un chercheur brésilien dans les études génétiques et les troubles cliniques du développement neurologique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus des quatre symptômes qui donnent son nom au syndrome, il y a d'autres symptômes communs :
 Un front en pente du haut vers le bas
@@ -546,9 +560,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parce que le syndrome MOMO est une maladie très rare, peu d'études ont été entreprises. La recherche actuelle suggère qu'il soit lié à une mutation de novo autosomique dominante[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parce que le syndrome MOMO est une maladie très rare, peu d'études ont été entreprises. La recherche actuelle suggère qu'il soit lié à une mutation de novo autosomique dominante.
 </t>
         </is>
       </c>
@@ -577,11 +593,13 @@
           <t>Cas confirmés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Archie Thompson est né en 2002 à Icklesham en Angleterre et pesait 3 740 g. À 15 mois son poids était monté à 25 kg et à 24 mois il pesait 38 kg. Le cas Thompson a été décrit dans un documentaire pour Five diffusé pour la première fois le 3 octobre 2004.
 Danielle Falan, de São Paulo au Brésil, est l'une des plus anciens malades. À l'âge de 17 ans elle a été vu dans le documentaire sur Archie Thompson.  Falan va au collège et espère aller à l'université.
-Cinq autres cas ont été diagnostiqués, en Italie[3], au Brésil [1], deux en Allemagne, et en Pologne[4]. Un cas supplémentaire a été reporté en 2010[5].
+Cinq autres cas ont été diagnostiqués, en Italie, au Brésil , deux en Allemagne, et en Pologne. Un cas supplémentaire a été reporté en 2010.
 </t>
         </is>
       </c>
